--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21134FBF-665E-4982-8729-040B6C0DE38F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284E6A7-DE57-42AA-9AAA-46A2258D7C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Leetcode</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Array Rotation 6</t>
   </si>
 </sst>
 </file>
@@ -375,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -392,6 +404,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -411,6 +426,12 @@
       <c r="A3">
         <v>33</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="2">
         <v>43978</v>
       </c>
@@ -419,6 +440,11 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284E6A7-DE57-42AA-9AAA-46A2258D7C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA06CE9-5EE5-4B8D-9FD4-965966D3835E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Leetcode</t>
   </si>
@@ -58,13 +58,62 @@
   </si>
   <si>
     <t>Array Rotation 6</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/</t>
+  </si>
+  <si>
+    <t>Array Rotation 7</t>
+  </si>
+  <si>
+    <t>no idea</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-maximum-value-of-sum-iarri-with-only-rotations-on-given-array-allowed/</t>
+  </si>
+  <si>
+    <t>no idea
+based on prev #7</t>
+  </si>
+  <si>
+    <t>Array Rotation 8</t>
+  </si>
+  <si>
+    <t>Array Rotation 9</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-rotation-count-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>based on q#5 finding pivot</t>
+  </si>
+  <si>
+    <t>Array Rotation 10</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>Array Rotation 11</t>
+  </si>
+  <si>
+    <t>Array Rotation 12</t>
+  </si>
+  <si>
+    <t>finding pivot which is min</t>
+  </si>
+  <si>
+    <t>Array Rotation 13</t>
+  </si>
+  <si>
+    <t>useless brute force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +125,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,10 +157,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,15 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -443,13 +502,88 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43979</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{3AF05B12-E336-4706-B10A-609E755AFA2E}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{1AEC65F1-55C3-46E5-9C8C-AB53C6F13C21}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{F9F0B929-A21F-49DC-BD5B-D06C2FBA0A84}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{A14CDD69-9C89-472B-9609-652DDF8A87FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA06CE9-5EE5-4B8D-9FD4-965966D3835E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D03CA87-B75A-4E99-A049-C2827CEF141C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Leetcode</t>
   </si>
@@ -107,13 +107,28 @@
   </si>
   <si>
     <t>useless brute force</t>
+  </si>
+  <si>
+    <t>Array Rearrangement 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-arri/</t>
+  </si>
+  <si>
+    <t>Array Rearrangement 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/write-a-program-to-reverse-an-array-or-string/</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +140,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,12 +180,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,24 +485,28 @@
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -577,14 +610,41 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43980</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{3AF05B12-E336-4706-B10A-609E755AFA2E}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{1AEC65F1-55C3-46E5-9C8C-AB53C6F13C21}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{F9F0B929-A21F-49DC-BD5B-D06C2FBA0A84}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{A14CDD69-9C89-472B-9609-652DDF8A87FF}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{3126909B-7EAC-4538-A996-3DF9BEB8CE87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D03CA87-B75A-4E99-A049-C2827CEF141C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC31A7-62B6-4E6C-874E-3162B79DB5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,19 +109,19 @@
     <t>useless brute force</t>
   </si>
   <si>
-    <t>Array Rearrangement 1</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/rearrange-array-arri/</t>
   </si>
   <si>
-    <t>Array Rearrangement 2</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/write-a-program-to-reverse-an-array-or-string/</t>
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #1</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #2</t>
   </si>
 </sst>
 </file>
@@ -476,16 +476,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -506,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -618,10 +620,10 @@
         <v>43980</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -629,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC31A7-62B6-4E6C-874E-3162B79DB5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE8214-C56E-45FA-93CD-9B25E2BBCC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Leetcode</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>Array Rearrangement #2</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #3</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-arri-arrj-even-arri/</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #4</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers-publish/</t>
   </si>
 </sst>
 </file>
@@ -474,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,6 +649,28 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -645,8 +679,9 @@
     <hyperlink ref="G5" r:id="rId3" xr:uid="{F9F0B929-A21F-49DC-BD5B-D06C2FBA0A84}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{A14CDD69-9C89-472B-9609-652DDF8A87FF}"/>
     <hyperlink ref="G13" r:id="rId5" xr:uid="{3126909B-7EAC-4538-A996-3DF9BEB8CE87}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{A62102DA-0AE3-4059-9B77-E53BEA33D072}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DE8214-C56E-45FA-93CD-9B25E2BBCC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684645C-AFA9-42AB-8AD7-4FF685A3F318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Leetcode</t>
   </si>
@@ -134,6 +134,39 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers-publish/</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #5</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-alternating-positive-negative-items-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #6</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/move-zeroes-end-array/</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #7</t>
+  </si>
+  <si>
+    <t>CONFUSED, SKIPPED</t>
+  </si>
+  <si>
+    <t>Array Rearrangement #8</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-swaps-required-bring-elements-less-equal-k-together/</t>
   </si>
 </sst>
 </file>
@@ -486,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,6 +704,50 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -680,8 +757,10 @@
     <hyperlink ref="G7" r:id="rId4" xr:uid="{A14CDD69-9C89-472B-9609-652DDF8A87FF}"/>
     <hyperlink ref="G13" r:id="rId5" xr:uid="{3126909B-7EAC-4538-A996-3DF9BEB8CE87}"/>
     <hyperlink ref="G15" r:id="rId6" xr:uid="{A62102DA-0AE3-4059-9B77-E53BEA33D072}"/>
+    <hyperlink ref="G17" r:id="rId7" xr:uid="{0A3AD2EB-DF36-403E-B624-0BD2D2FD7103}"/>
+    <hyperlink ref="G19" r:id="rId8" xr:uid="{3549B9FF-7C5A-4AD5-9AF9-C18E344A769A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684645C-AFA9-42AB-8AD7-4FF685A3F318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E20F0A-713A-4FF8-B709-58A679B3C238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Leetcode</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/minimum-swaps-required-bring-elements-less-equal-k-together/</t>
+  </si>
+  <si>
+    <t>Array Order Statistics #1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/</t>
+  </si>
+  <si>
+    <t>Array Order Statistics #6</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/kth-smallest-element-in-a-row-wise-and-column-wise-sorted-2d-array-set-1/</t>
   </si>
 </sst>
 </file>
@@ -519,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>39</v>
       </c>
@@ -726,7 +738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -734,7 +746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>44</v>
       </c>
@@ -746,6 +758,40 @@
       </c>
       <c r="G19" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +805,9 @@
     <hyperlink ref="G15" r:id="rId6" xr:uid="{A62102DA-0AE3-4059-9B77-E53BEA33D072}"/>
     <hyperlink ref="G17" r:id="rId7" xr:uid="{0A3AD2EB-DF36-403E-B624-0BD2D2FD7103}"/>
     <hyperlink ref="G19" r:id="rId8" xr:uid="{3549B9FF-7C5A-4AD5-9AF9-C18E344A769A}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{6C5F3009-BA62-4FFF-8069-7F551E4EBA49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E20F0A-713A-4FF8-B709-58A679B3C238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B594938-59E0-49F3-81F6-33ED61E92106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Leetcode</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/kth-smallest-element-in-a-row-wise-and-column-wise-sorted-2d-array-set-1/</t>
+  </si>
+  <si>
+    <t>Singly LinkedList #5</t>
+  </si>
+  <si>
+    <t>Singly LinkedList #7</t>
+  </si>
+  <si>
+    <t>Singly LinkedList #8</t>
   </si>
 </sst>
 </file>
@@ -531,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,6 +801,33 @@
       </c>
       <c r="G21" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B594938-59E0-49F3-81F6-33ED61E92106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D038A-8766-42B4-A878-C5B93E764127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
+    <sheet name="Leetcode Session 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>Leetcode</t>
   </si>
@@ -188,6 +189,133 @@
   </si>
   <si>
     <t>Singly LinkedList #8</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Add 2 nos from Lists</t>
+  </si>
+  <si>
+    <t>Detect cycle in LL</t>
+  </si>
+  <si>
+    <t>Detect cycle node</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>Merge k-sorted LLs</t>
+  </si>
+  <si>
+    <t>Reverse LL</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>iterative done
+recur done</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>done stack</t>
+  </si>
+  <si>
+    <t>Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>done iterative</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Queue using Stacks</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/queue-using-stacks/</t>
+  </si>
+  <si>
+    <t>Stack using queues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Parentheses </t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>seen n done</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>array n stack</t>
+  </si>
+  <si>
+    <t>seen n done - array</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t>Design Circular Queue</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock 1</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock 2</t>
   </si>
 </sst>
 </file>
@@ -540,310 +668,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
         <v>43978</v>
       </c>
       <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>43979</v>
       </c>
       <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
         <v>43980</v>
       </c>
       <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
       <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>43982</v>
       </c>
       <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>215</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
         <v>47</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>378</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
         <v>43983</v>
       </c>
       <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43984</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>445</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43985</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1249</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43986</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>394</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>341</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>739</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43987</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>346</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>621</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>622</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{3AF05B12-E336-4706-B10A-609E755AFA2E}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{1AEC65F1-55C3-46E5-9C8C-AB53C6F13C21}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{F9F0B929-A21F-49DC-BD5B-D06C2FBA0A84}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{A14CDD69-9C89-472B-9609-652DDF8A87FF}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{3126909B-7EAC-4538-A996-3DF9BEB8CE87}"/>
-    <hyperlink ref="G15" r:id="rId6" xr:uid="{A62102DA-0AE3-4059-9B77-E53BEA33D072}"/>
-    <hyperlink ref="G17" r:id="rId7" xr:uid="{0A3AD2EB-DF36-403E-B624-0BD2D2FD7103}"/>
-    <hyperlink ref="G19" r:id="rId8" xr:uid="{3549B9FF-7C5A-4AD5-9AF9-C18E344A769A}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{6C5F3009-BA62-4FFF-8069-7F551E4EBA49}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{3AF05B12-E336-4706-B10A-609E755AFA2E}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{1AEC65F1-55C3-46E5-9C8C-AB53C6F13C21}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{F9F0B929-A21F-49DC-BD5B-D06C2FBA0A84}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{A14CDD69-9C89-472B-9609-652DDF8A87FF}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{3126909B-7EAC-4538-A996-3DF9BEB8CE87}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{A62102DA-0AE3-4059-9B77-E53BEA33D072}"/>
+    <hyperlink ref="H17" r:id="rId7" xr:uid="{0A3AD2EB-DF36-403E-B624-0BD2D2FD7103}"/>
+    <hyperlink ref="H19" r:id="rId8" xr:uid="{3549B9FF-7C5A-4AD5-9AF9-C18E344A769A}"/>
+    <hyperlink ref="H21" r:id="rId9" xr:uid="{6C5F3009-BA62-4FFF-8069-7F551E4EBA49}"/>
+    <hyperlink ref="H35" r:id="rId10" xr:uid="{010B2A7B-ADDC-4DA1-9D73-040B35545CE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15803CD0-6BF9-49F2-9922-DDB27092007A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D038A-8766-42B4-A878-C5B93E764127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D49099-E093-4EE4-BF88-8081B30D1724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>Leetcode</t>
   </si>
@@ -316,6 +316,36 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock 2</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>LCA of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Power of num</t>
+  </si>
+  <si>
+    <t>Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>Reorder Data in Log Files</t>
+  </si>
+  <si>
+    <t>Find Duplicate File in System</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
   </si>
 </sst>
 </file>
@@ -668,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1435,7 +1465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>123</v>
       </c>
@@ -1444,6 +1474,144 @@
       </c>
       <c r="D49" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>543</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43989</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>236</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>325</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>937</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>609</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43993</v>
       </c>
     </row>
   </sheetData>

--- a/session4/Progress.xlsx
+++ b/session4/Progress.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HB\Masters\College_Docs\SJSU\MS-SE_courses\GitHub_stuff\Data-Structures-Algorithms_practice\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D49099-E093-4EE4-BF88-8081B30D1724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFEA903-51F3-4F32-8B61-D72033E01DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode Session 4" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="117">
   <si>
     <t>Leetcode</t>
   </si>
@@ -346,13 +345,46 @@
   </si>
   <si>
     <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>Top K Frequent Words</t>
+  </si>
+  <si>
+    <t>Concatenated Words</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t>done 1 approach</t>
+  </si>
+  <si>
+    <t>Analyze User Website Visit Pattern</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +414,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -404,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -417,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -929,7 +969,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
@@ -968,7 +1008,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="2">
@@ -1407,7 +1447,7 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="2">
@@ -1472,7 +1512,7 @@
       <c r="C49" t="s">
         <v>68</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1599,10 +1639,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -1610,8 +1650,174 @@
       <c r="D58" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="2">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2">
         <v>43993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>994</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>692</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>472</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>997</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43994</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>621</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>622</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44010</v>
       </c>
     </row>
   </sheetData>
@@ -1631,16 +1837,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15803CD0-6BF9-49F2-9922-DDB27092007A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>